--- a/Stich_HP.xlsx
+++ b/Stich_HP.xlsx
@@ -647,28 +647,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -990,32 +990,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="63" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="63" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="64"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="66"/>
     </row>
     <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -1302,8 +1302,8 @@
       <c r="B12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -1660,8 +1660,8 @@
       <c r="B25" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="47"/>
       <c r="F25" s="48"/>
       <c r="G25" s="48"/>
@@ -1686,8 +1686,8 @@
       <c r="B26" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="47"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
@@ -1709,13 +1709,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
@@ -1732,6 +1725,13 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1743,7 +1743,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,19 +1756,19 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1810,34 +1810,32 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="54">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="37">
+        <v>13</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="36">
         <v>12</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="36">
-        <v>10</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
@@ -1845,21 +1843,19 @@
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
-      <c r="J4" s="38"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="36">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="C5" s="54">
+        <v>12</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -1867,15 +1863,15 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>33</v>
@@ -1897,7 +1893,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>33</v>
@@ -1919,7 +1915,7 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>33</v>
@@ -1941,20 +1937,20 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="38"/>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
@@ -1963,20 +1959,20 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
@@ -1985,7 +1981,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>34</v>
@@ -2007,7 +2003,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>34</v>
@@ -2029,7 +2025,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>34</v>
@@ -2050,64 +2046,68 @@
       <c r="N13" s="38"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6">
+        <v>4</v>
+      </c>
       <c r="B14" s="24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="6">
+        <v>5</v>
+      </c>
       <c r="B15" s="24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C15" s="36">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="38"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="37">
-        <v>13</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="36">
+        <v>6</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">

--- a/Stich_HP.xlsx
+++ b/Stich_HP.xlsx
@@ -11,13 +11,14 @@
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="skill aspect" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="116">
   <si>
     <t>Coryphee</t>
   </si>
@@ -128,13 +129,250 @@
   </si>
   <si>
     <t>Гиньоль</t>
+  </si>
+  <si>
+    <t>Ближний бой</t>
+  </si>
+  <si>
+    <t>Сила</t>
+  </si>
+  <si>
+    <t>Грация</t>
+  </si>
+  <si>
+    <t>Скорость</t>
+  </si>
+  <si>
+    <t>Выносливость</t>
+  </si>
+  <si>
+    <t>Навык</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Аспект</t>
+  </si>
+  <si>
+    <t>Ближнее</t>
+  </si>
+  <si>
+    <t>Тяжелое ближнее</t>
+  </si>
+  <si>
+    <t>Пневматика</t>
+  </si>
+  <si>
+    <t>Кулачный бой</t>
+  </si>
+  <si>
+    <t>Гибкое</t>
+  </si>
+  <si>
+    <t>Боевые искусства</t>
+  </si>
+  <si>
+    <t>Дальний бой</t>
+  </si>
+  <si>
+    <t>Тяжелые пушки</t>
+  </si>
+  <si>
+    <t>Стрельба из лука</t>
+  </si>
+  <si>
+    <t>Пистолеты</t>
+  </si>
+  <si>
+    <t>Дробовики</t>
+  </si>
+  <si>
+    <t>Метательное</t>
+  </si>
+  <si>
+    <t>Длинноствольное</t>
+  </si>
+  <si>
+    <t>Магические</t>
+  </si>
+  <si>
+    <t>Зачарование</t>
+  </si>
+  <si>
+    <t>Волшебство</t>
+  </si>
+  <si>
+    <t>Некромантия</t>
+  </si>
+  <si>
+    <t>Изменение</t>
+  </si>
+  <si>
+    <t>Антимагия</t>
+  </si>
+  <si>
+    <t>Использование Камней Душ</t>
+  </si>
+  <si>
+    <t>Академические</t>
+  </si>
+  <si>
+    <t>Искусство</t>
+  </si>
+  <si>
+    <t>Бюрократия</t>
+  </si>
+  <si>
+    <t>Грамота</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инженерное дело </t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>История</t>
+  </si>
+  <si>
+    <t>Ремесленные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изготовление артефактов </t>
+  </si>
+  <si>
+    <t>Шитье</t>
+  </si>
+  <si>
+    <t>Алхимия</t>
+  </si>
+  <si>
+    <t>Кузнечное дело</t>
+  </si>
+  <si>
+    <t>Фермерство</t>
+  </si>
+  <si>
+    <t>Усадебные работы</t>
+  </si>
+  <si>
+    <t>Рисование</t>
+  </si>
+  <si>
+    <t>Экспертные</t>
+  </si>
+  <si>
+    <t>Взлом</t>
+  </si>
+  <si>
+    <t>Карманник</t>
+  </si>
+  <si>
+    <t>Животноводство</t>
+  </si>
+  <si>
+    <t>Музыка</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>Подделка</t>
+  </si>
+  <si>
+    <t>Азартные игры</t>
+  </si>
+  <si>
+    <t>Контроль</t>
+  </si>
+  <si>
+    <t>Выслеживание</t>
+  </si>
+  <si>
+    <t>Дикая природа</t>
+  </si>
+  <si>
+    <t>Фармацевтика</t>
+  </si>
+  <si>
+    <t>Взрывчатка</t>
+  </si>
+  <si>
+    <t>Навигация</t>
+  </si>
+  <si>
+    <t>Социальные</t>
+  </si>
+  <si>
+    <t>Приворожить</t>
+  </si>
+  <si>
+    <t>Лидерство</t>
+  </si>
+  <si>
+    <t>Убеждение</t>
+  </si>
+  <si>
+    <t>Обман</t>
+  </si>
+  <si>
+    <t>Обучение</t>
+  </si>
+  <si>
+    <t>Торговля</t>
+  </si>
+  <si>
+    <t>Запугивание</t>
+  </si>
+  <si>
+    <t>Тренированные</t>
+  </si>
+  <si>
+    <t>Атлетика</t>
+  </si>
+  <si>
+    <t>Акробатика</t>
+  </si>
+  <si>
+    <t>Уклонение</t>
+  </si>
+  <si>
+    <t>Кутёж</t>
+  </si>
+  <si>
+    <t>Труд</t>
+  </si>
+  <si>
+    <t>Стойкость</t>
+  </si>
+  <si>
+    <t>Внимательность</t>
+  </si>
+  <si>
+    <t>Скрытность</t>
+  </si>
+  <si>
+    <t>Уравновешенность</t>
+  </si>
+  <si>
+    <t>Упорство</t>
+  </si>
+  <si>
+    <t>Интеллект</t>
+  </si>
+  <si>
+    <t>Хитрость</t>
+  </si>
+  <si>
+    <t>Обаяние</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +380,20 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -537,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -593,9 +845,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -641,19 +890,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,7 +905,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -671,8 +920,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,32 +1270,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="61" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="66"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="64"/>
     </row>
     <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -1024,18 +1304,18 @@
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -1052,18 +1332,18 @@
       </c>
       <c r="C3" s="59"/>
       <c r="D3" s="60"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
@@ -1080,18 +1360,18 @@
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
@@ -1108,18 +1388,18 @@
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="60"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
@@ -1136,18 +1416,18 @@
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="60"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
@@ -1164,18 +1444,18 @@
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="60"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
@@ -1192,18 +1472,18 @@
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="60"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
@@ -1220,18 +1500,18 @@
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="60"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
@@ -1248,18 +1528,18 @@
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="60"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
@@ -1276,18 +1556,18 @@
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="60"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
@@ -1302,20 +1582,20 @@
       <c r="B12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -1332,18 +1612,18 @@
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="60"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
@@ -1360,18 +1640,18 @@
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="60"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -1388,18 +1668,18 @@
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="60"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -1416,18 +1696,18 @@
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="60"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
@@ -1444,18 +1724,18 @@
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="60"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
@@ -1472,18 +1752,18 @@
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="60"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
@@ -1500,18 +1780,18 @@
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="60"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
@@ -1528,18 +1808,18 @@
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="60"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
@@ -1554,18 +1834,18 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="52"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="51"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
@@ -1582,18 +1862,18 @@
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
@@ -1610,18 +1890,18 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
@@ -1636,18 +1916,18 @@
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
@@ -1660,20 +1940,20 @@
       <c r="B25" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
@@ -1686,20 +1966,20 @@
       <c r="B26" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -1709,6 +1989,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
@@ -1725,13 +2012,6 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1740,10 +2020,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,85 +2039,85 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="52">
         <v>1</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="52">
         <v>2</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="52">
         <v>3</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="52">
         <v>4</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="52">
         <v>5</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="52">
         <v>6</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="52">
         <v>7</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="52">
         <v>8</v>
       </c>
-      <c r="L2" s="35">
+      <c r="L2" s="34">
         <v>9</v>
       </c>
-      <c r="M2" s="35">
+      <c r="M2" s="34">
         <v>10</v>
       </c>
-      <c r="N2" s="35">
+      <c r="N2" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="36">
         <v>13</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>12</v>
       </c>
       <c r="D4" s="29"/>
@@ -1844,17 +2127,17 @@
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="53">
         <v>12</v>
       </c>
       <c r="D5" s="29"/>
@@ -1865,18 +2148,18 @@
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>10</v>
       </c>
       <c r="D6" s="29"/>
@@ -1885,20 +2168,20 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>10</v>
       </c>
       <c r="D7" s="29"/>
@@ -1907,20 +2190,20 @@
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>10</v>
       </c>
       <c r="D8" s="29"/>
@@ -1929,20 +2212,20 @@
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>10</v>
       </c>
       <c r="D9" s="29"/>
@@ -1951,20 +2234,20 @@
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>10</v>
       </c>
       <c r="D10" s="29"/>
@@ -1973,128 +2256,128 @@
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>1</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>1</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>2</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>1</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>3</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="35">
         <v>1</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>4</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="35">
         <v>1</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>5</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>1</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>6</v>
       </c>
       <c r="D16" s="29"/>
@@ -2113,50 +2396,50 @@
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
@@ -2173,7 +2456,7 @@
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="76" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1"/>
@@ -2183,17 +2466,17 @@
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="76" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="1"/>
@@ -2203,18 +2486,636 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="D23" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="C24" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="58">
+        <v>1</v>
+      </c>
+      <c r="E24" s="58">
+        <v>2</v>
+      </c>
+      <c r="F24" s="58">
+        <v>3</v>
+      </c>
+      <c r="G24" s="58">
+        <v>4</v>
+      </c>
+      <c r="H24" s="58">
+        <v>5</v>
+      </c>
+      <c r="I24" s="58">
+        <v>6</v>
+      </c>
+      <c r="J24" s="58">
+        <v>7</v>
+      </c>
+      <c r="K24" s="58">
+        <v>8</v>
+      </c>
+      <c r="L24" s="58">
+        <v>9</v>
+      </c>
+      <c r="M24" s="58">
+        <v>10</v>
+      </c>
+      <c r="N24" s="56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="53">
+        <v>8</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="35">
+        <v>12</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>1</v>
+      </c>
+      <c r="B27" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="35">
+        <v>5</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>2</v>
+      </c>
+      <c r="B28" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="35">
+        <v>5</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>3</v>
+      </c>
+      <c r="B29" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="35">
+        <v>5</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="35">
+        <v>12</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="37"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="D37" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="C38" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="58">
+        <v>1</v>
+      </c>
+      <c r="E38" s="58">
+        <v>2</v>
+      </c>
+      <c r="F38" s="58">
+        <v>3</v>
+      </c>
+      <c r="G38" s="58">
+        <v>4</v>
+      </c>
+      <c r="H38" s="58">
+        <v>5</v>
+      </c>
+      <c r="I38" s="58">
+        <v>6</v>
+      </c>
+      <c r="J38" s="58">
+        <v>7</v>
+      </c>
+      <c r="K38" s="58">
+        <v>8</v>
+      </c>
+      <c r="L38" s="58">
+        <v>9</v>
+      </c>
+      <c r="M38" s="58">
+        <v>10</v>
+      </c>
+      <c r="N38" s="56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="53">
+        <v>7</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="35">
+        <v>6</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="35">
+        <v>6</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="35">
+        <v>6</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="35">
+        <v>10</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="35">
+        <v>9</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="37"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="35">
+        <v>16</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="37"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="35">
+        <v>9</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="55"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="55"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="D1:N1"/>
+    <mergeCell ref="D23:N23"/>
+    <mergeCell ref="D37:N37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2223,7 +3124,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="N13" sqref="A1:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,40 +3153,40 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="52">
         <v>1</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="52">
         <v>2</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="52">
         <v>3</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="52">
         <v>4</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="52">
         <v>5</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="52">
         <v>6</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="52">
         <v>7</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="52">
         <v>8</v>
       </c>
-      <c r="L2" s="53">
+      <c r="L2" s="52">
         <v>9</v>
       </c>
-      <c r="M2" s="53">
+      <c r="M2" s="52">
         <v>10</v>
       </c>
-      <c r="N2" s="57">
+      <c r="N2" s="56">
         <v>11</v>
       </c>
     </row>
@@ -2294,7 +3195,7 @@
       <c r="B3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="53">
         <v>8</v>
       </c>
       <c r="D3" s="29"/>
@@ -2302,19 +3203,19 @@
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>12</v>
       </c>
       <c r="D4" s="29"/>
@@ -2326,8 +3227,8 @@
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -2336,7 +3237,7 @@
       <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>5</v>
       </c>
       <c r="D5" s="29"/>
@@ -2347,9 +3248,9 @@
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -2358,7 +3259,7 @@
       <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>5</v>
       </c>
       <c r="D6" s="29"/>
@@ -2369,9 +3270,9 @@
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -2380,7 +3281,7 @@
       <c r="B7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>5</v>
       </c>
       <c r="D7" s="29"/>
@@ -2391,16 +3292,16 @@
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>12</v>
       </c>
       <c r="D8" s="29"/>
@@ -2413,56 +3314,56 @@
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
-      <c r="N8" s="38"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
@@ -2489,17 +3390,19 @@
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="76" t="s">
+        <v>36</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2507,11 +3410,11 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2526,7 +3429,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="N16" sqref="A1:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,40 +3458,40 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="52">
         <v>1</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="52">
         <v>2</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="52">
         <v>3</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="52">
         <v>4</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="52">
         <v>5</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="52">
         <v>6</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="52">
         <v>7</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="52">
         <v>8</v>
       </c>
-      <c r="L2" s="53">
+      <c r="L2" s="52">
         <v>9</v>
       </c>
-      <c r="M2" s="53">
+      <c r="M2" s="52">
         <v>10</v>
       </c>
-      <c r="N2" s="57">
+      <c r="N2" s="56">
         <v>11</v>
       </c>
     </row>
@@ -2597,7 +3500,7 @@
       <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="53">
         <v>7</v>
       </c>
       <c r="D3" s="29"/>
@@ -2605,59 +3508,59 @@
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>6</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>6</v>
       </c>
       <c r="D6" s="29"/>
@@ -2667,37 +3570,37 @@
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>6</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>10</v>
       </c>
       <c r="D8" s="29"/>
@@ -2707,17 +3610,17 @@
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>9</v>
       </c>
       <c r="D9" s="29"/>
@@ -2730,14 +3633,14 @@
       <c r="K9" s="29"/>
       <c r="L9" s="1"/>
       <c r="M9" s="29"/>
-      <c r="N9" s="38"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>16</v>
       </c>
       <c r="D10" s="29"/>
@@ -2750,14 +3653,14 @@
       <c r="K10" s="29"/>
       <c r="L10" s="1"/>
       <c r="M10" s="29"/>
-      <c r="N10" s="38"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>9</v>
       </c>
       <c r="D11" s="29"/>
@@ -2765,61 +3668,61 @@
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
@@ -2839,36 +3742,38 @@
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="55"/>
+      <c r="B16" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="54"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2876,4 +3781,745 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C65" sqref="A1:C65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="73"/>
+    <col min="4" max="4" width="8.7109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.7109375" style="73"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="74"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>